--- a/其他文件/数据表/表格/光照对植物生长各项指标的影响情况.xlsx
+++ b/其他文件/数据表/表格/光照对植物生长各项指标的影响情况.xlsx
@@ -47,6 +47,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
       <t>intercellularCO</t>
     </r>
     <r>
@@ -79,6 +86,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
       <t>μmmolCO</t>
     </r>
     <r>
@@ -137,6 +151,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
       <t>mol H2Om</t>
     </r>
     <r>
@@ -174,6 +195,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
       <t>μl·L</t>
     </r>
     <r>
@@ -190,6 +218,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
       <t>mmol·m</t>
     </r>
     <r>
@@ -238,11 +273,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,13 +339,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -325,39 +353,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -373,7 +370,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,37 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,21 +446,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,13 +525,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,13 +627,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,19 +675,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,121 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,20 +782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,16 +806,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -798,11 +823,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,32 +845,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,152 +884,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,12 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1214,7 +1236,7 @@
                   <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.48</c:v>
@@ -1511,7 +1533,7 @@
                   <c:v>0.0073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0074</c:v>
+                  <c:v>0.0073</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0085</c:v>
@@ -1810,7 +1832,7 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>270</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>330</c:v>
@@ -2109,7 +2131,7 @@
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.32</c:v>
@@ -5084,8 +5106,8 @@
   <sheetPr/>
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -5105,7 +5127,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="15"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" ht="40" customHeight="1" spans="2:7">
       <c r="B2" s="4" t="s">
@@ -5128,239 +5150,239 @@
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="2:7">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="55" customHeight="1" spans="2:7">
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="65" customHeight="1" spans="2:7">
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>2000</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>0.67</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>0.0096</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>335</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>0.35</v>
       </c>
     </row>
     <row r="6" ht="65" customHeight="1" spans="2:7">
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>1500</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="12">
+      <c r="C6" s="7"/>
+      <c r="D6" s="10">
         <v>1.44</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>0.0073</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>133</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>0.27</v>
       </c>
     </row>
     <row r="7" ht="65" customHeight="1" spans="2:7">
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>1249</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="12">
+      <c r="C7" s="7"/>
+      <c r="D7" s="10">
         <v>1.45</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>0.0073</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>140</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>0.27</v>
       </c>
     </row>
     <row r="8" ht="65" customHeight="1" spans="2:7">
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>783</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="13">
-        <v>0.73</v>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10">
+        <v>1.67</v>
       </c>
-      <c r="E8" s="13">
-        <v>0.0074</v>
+      <c r="E8" s="10">
+        <v>0.0073</v>
       </c>
-      <c r="F8" s="13">
-        <v>270</v>
+      <c r="F8" s="10">
+        <v>300</v>
       </c>
-      <c r="G8" s="13">
-        <v>0.27</v>
+      <c r="G8" s="10">
+        <v>0.26</v>
       </c>
     </row>
     <row r="9" ht="65" customHeight="1" spans="2:7">
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>617</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="13">
+      <c r="C9" s="7"/>
+      <c r="D9" s="11">
         <v>0.48</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>0.0085</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>330</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>0.32</v>
       </c>
     </row>
     <row r="10" ht="65" customHeight="1" spans="2:7">
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>497</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="13">
+      <c r="C10" s="7"/>
+      <c r="D10" s="11">
         <v>0.41</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>0.0097</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>420</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
